--- a/InputData/elec/BSpUESttGbGB/BAU Subsidy per Unit Electricity Supplied to the Grid by Grid Batteries.xlsx
+++ b/InputData/elec/BSpUESttGbGB/BAU Subsidy per Unit Electricity Supplied to the Grid by Grid Batteries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BSpUESttGbGB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30AEC0E-7EC0-4484-AADF-96C517C42A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C30AEC0E-7EC0-4484-AADF-96C517C42A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03673FD2-1F2A-432D-9E66-B3185ED41C53}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,11 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BSpUESttGbGB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -26,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,33 +37,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>BSpUESttGbGB BAU Subsidy per Unit Electricity Supplied to the Grid by Grid Batteries</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t xml:space="preserve">This file assumes developers will opt for the battery ITC, given the </t>
-  </si>
-  <si>
-    <t>incentives in the Inflation Reduction Act. Therefore, the</t>
-  </si>
-  <si>
-    <t>value for a PTC style subsidy is 0.</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>In the EU there was no general support for grid batteries</t>
+  </si>
+  <si>
+    <t>in place looking at the time before the Green Deal</t>
+  </si>
+  <si>
+    <t>There were some projects financed under PCI (Projets of Common Interest)</t>
+  </si>
+  <si>
+    <t>and IPCEI (Important Project of Common European Interest)</t>
+  </si>
+  <si>
+    <t>but there was no financial support applicable to any grid battery</t>
+  </si>
+  <si>
+    <t>(2012 USD / MWh)</t>
   </si>
   <si>
     <t>Subsidy</t>
-  </si>
-  <si>
-    <t>(2012 USD / MWh)</t>
-  </si>
-  <si>
-    <t>BSpUESttGbGB BAU Subsidy per Unit Electricity Supplied to the Grid by Grid Batteries</t>
   </si>
 </sst>
 </file>
@@ -69,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,11 +155,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency 2" xfId="5" xr:uid="{81BD210F-5FF0-4880-8028-0DC76957F95F}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{A0D66D47-893E-4339-ABA2-2AA2E8FD27AB}"/>
     <cellStyle name="Normal 3 2" xfId="3" xr:uid="{6280AA9E-3B50-418D-82DE-98EB684B0878}"/>
     <cellStyle name="Percent 2" xfId="4" xr:uid="{2FFD538B-3558-46F7-AC70-5718F1F53027}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,45 +461,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -509,14 +527,14 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -609,9 +627,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -707,4 +725,259 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07C805B4-4C85-43DD-B47B-84E685CE9CC0}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4811B082-086B-4F7C-B92F-0D0F26297D9D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B050A8-A3D6-4818-AFBF-511BED0443AF}"/>
 </file>
--- a/InputData/elec/BSpUESttGbGB/BAU Subsidy per Unit Electricity Supplied to the Grid by Grid Batteries.xlsx
+++ b/InputData/elec/BSpUESttGbGB/BAU Subsidy per Unit Electricity Supplied to the Grid by Grid Batteries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BSpUESttGbGB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C30AEC0E-7EC0-4484-AADF-96C517C42A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03673FD2-1F2A-432D-9E66-B3185ED41C53}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30AEC0E-7EC0-4484-AADF-96C517C42A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,8 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BSpUESttGbGB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -29,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,39 +33,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This file assumes developers will opt for the battery ITC, given the </t>
+  </si>
+  <si>
+    <t>incentives in the Inflation Reduction Act. Therefore, the</t>
+  </si>
+  <si>
+    <t>value for a PTC style subsidy is 0.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Subsidy</t>
+  </si>
+  <si>
+    <t>(2012 USD / MWh)</t>
+  </si>
   <si>
     <t>BSpUESttGbGB BAU Subsidy per Unit Electricity Supplied to the Grid by Grid Batteries</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>In the EU there was no general support for grid batteries</t>
-  </si>
-  <si>
-    <t>in place looking at the time before the Green Deal</t>
-  </si>
-  <si>
-    <t>There were some projects financed under PCI (Projets of Common Interest)</t>
-  </si>
-  <si>
-    <t>and IPCEI (Important Project of Common European Interest)</t>
-  </si>
-  <si>
-    <t>but there was no financial support applicable to any grid battery</t>
-  </si>
-  <si>
-    <t>(2012 USD / MWh)</t>
-  </si>
-  <si>
-    <t>Subsidy</t>
   </si>
 </sst>
 </file>
@@ -79,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,11 +145,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency 2" xfId="5" xr:uid="{81BD210F-5FF0-4880-8028-0DC76957F95F}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{A0D66D47-893E-4339-ABA2-2AA2E8FD27AB}"/>
     <cellStyle name="Normal 3 2" xfId="3" xr:uid="{6280AA9E-3B50-418D-82DE-98EB684B0878}"/>
     <cellStyle name="Percent 2" xfId="4" xr:uid="{2FFD538B-3558-46F7-AC70-5718F1F53027}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,53 +451,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -527,14 +509,14 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -627,9 +609,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -725,259 +707,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
-    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07C805B4-4C85-43DD-B47B-84E685CE9CC0}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4811B082-086B-4F7C-B92F-0D0F26297D9D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B050A8-A3D6-4818-AFBF-511BED0443AF}"/>
 </file>